--- a/va_facility_data_2025-02-20/Doris Miller Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Doris%20Miller%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Doris Miller Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Doris%20Miller%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf96e7ce62bad4f44a7f0acd69ec3f1b4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf08f6a5c3a1a4d03b67e143ee7c4e58b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcd29e34141664f5dbdd03e7b5afd5586"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re7aaecbd64924724841b8fba499ae62f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7b994581e6e742d883c8ef9bb77f1827"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd5891104f2c24b5ea168927aa2055fd0"/>
   </x:sheets>
 </x:workbook>
 </file>
